--- a/KT1/KT1.2/KT1.2.6 Globale Planning/Globale Planning v1.0.0.xlsx
+++ b/KT1/KT1.2/KT1.2.6 Globale Planning/Globale Planning v1.0.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="89">
   <si>
     <t>Globale Planning</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>0,5 uur</t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2484,9 @@
       <c r="E57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="16"/>
+      <c r="F57" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,8 +2496,12 @@
         <v>50</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2509,7 +2518,9 @@
       <c r="E59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,8 +2530,12 @@
         <v>49</v>
       </c>
       <c r="D60" s="12"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,7 +2591,9 @@
       <c r="E64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2586,8 +2603,12 @@
         <v>52</v>
       </c>
       <c r="D65" s="12"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2604,18 +2625,24 @@
       <c r="E66" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2647,7 +2674,9 @@
       <c r="E69" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,7 +2693,9 @@
       <c r="E70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,7 +2751,9 @@
       <c r="E74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,7 +2770,9 @@
       <c r="E75" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="16"/>
+      <c r="F75" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2769,7 +2804,9 @@
       <c r="E77" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2786,7 +2823,9 @@
       <c r="E78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,9 +2879,11 @@
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,8 +2893,12 @@
         <v>58</v>
       </c>
       <c r="D83" s="12"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2915,9 @@
       <c r="E84" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F84" s="16"/>
+      <c r="F84" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2902,7 +2949,9 @@
       <c r="E86" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="16"/>
+      <c r="F86" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2919,7 +2968,9 @@
       <c r="E87" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,7 +3059,9 @@
       <c r="E94" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3023,9 +3076,11 @@
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F95" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,8 +3090,12 @@
         <v>77</v>
       </c>
       <c r="D96" s="18"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
+      <c r="E96" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3068,7 +3127,9 @@
       <c r="E98" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F98" s="16"/>
+      <c r="F98" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3078,8 +3139,12 @@
         <v>64</v>
       </c>
       <c r="D99" s="18"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
+      <c r="E99" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
